--- a/cypress/fixtures/LMS/Report_recent.xlsx
+++ b/cypress/fixtures/LMS/Report_recent.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA7E26F-11F1-41B1-9BC5-F3835B8C1778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF65BAF-26DC-4A19-A0C6-EC94FACA16B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2085" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Gradebook" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,9 @@
       <c r="F2" s="4">
         <v>20</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>20</v>
+      </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8581,7 +8583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
